--- a/graphs apresentação.xlsx
+++ b/graphs apresentação.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>OpenMPI</t>
   </si>
   <si>
     <t>OpenMP</t>
+  </si>
+  <si>
+    <t>Híbrido</t>
   </si>
 </sst>
 </file>
@@ -309,6 +312,100 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Híbrido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.1856270000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3297140000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0306420000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.133659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7087159999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0032179999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.081118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.975781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -318,11 +415,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2075845840"/>
-        <c:axId val="2075842576"/>
+        <c:axId val="1738364976"/>
+        <c:axId val="1738355184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075845840"/>
+        <c:axId val="1738364976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075842576"/>
+        <c:crossAx val="1738355184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -433,7 +530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075842576"/>
+        <c:axId val="1738355184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075845840"/>
+        <c:crossAx val="1738364976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1186,16 +1283,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,7 +1604,7 @@
   <dimension ref="C4:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1622,9 @@
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -1538,7 +1637,9 @@
       <c r="E5" s="3">
         <v>3.002888</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>2.1856270000000002</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -1551,7 +1652,9 @@
       <c r="E6" s="3">
         <v>1.466702</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>1.3297140000000001</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -1564,7 +1667,9 @@
       <c r="E7" s="3">
         <v>0.71601599999999999</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>1.0306420000000001</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -1577,7 +1682,9 @@
       <c r="E8" s="3">
         <v>0.39228400000000002</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>1.133659</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -1590,7 +1697,9 @@
       <c r="E9" s="3">
         <v>0.241592</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>1.7087159999999999</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -1603,7 +1712,9 @@
       <c r="E10" s="3">
         <v>0.199936</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>2.0032179999999999</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -1616,7 +1727,9 @@
       <c r="E11" s="3">
         <v>0.26292599999999999</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>2.081118</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -1629,7 +1742,9 @@
       <c r="E12" s="3">
         <v>0.26620100000000002</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>1.975781</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">

--- a/graphs apresentação.xlsx
+++ b/graphs apresentação.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>OpenMPI</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Híbrido</t>
+  </si>
+  <si>
+    <t>Sequêncial</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -82,9 +85,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -148,7 +148,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -242,7 +254,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -336,7 +360,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -400,6 +436,107 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.975781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequêncial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9894639999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9894639999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9894639999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9894639999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9894639999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9894639999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9894639999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9894639999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,12 +551,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1738364976"/>
-        <c:axId val="1738355184"/>
+        <c:axId val="315472608"/>
+        <c:axId val="315484576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1738364976"/>
+        <c:axId val="315472608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1738355184"/>
+        <c:crossAx val="315484576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -530,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1738355184"/>
+        <c:axId val="315484576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +780,659 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1738364976"/>
+        <c:crossAx val="315472608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.77842840715928407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4802660995422237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5493037617926442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0498479393512148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0929318491496014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2226692366402339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8189246938702386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6011986801988054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.99552963680297102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0382218064746622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1751357511563985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6206625811911772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.374019007251896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.952104673495517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.369982428516009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.230100563108326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Híbrido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.3677832493833575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2482007409112033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.900584296001909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.637004601912921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7495382497735141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4923308396789565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4364702049571432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.513054331426408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="315482400"/>
+        <c:axId val="315482944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="315482400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315482944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315482944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Up</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315482400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,6 +1553,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1279,17 +2109,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
@@ -1306,6 +2652,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1601,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G13"/>
+  <dimension ref="C4:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +3001,9 @@
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
@@ -1637,10 +3015,12 @@
       <c r="E5" s="3">
         <v>3.002888</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2.1856270000000002</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
@@ -1652,10 +3032,12 @@
       <c r="E6" s="3">
         <v>1.466702</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1.3297140000000001</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -1667,10 +3049,12 @@
       <c r="E7" s="3">
         <v>0.71601599999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1.0306420000000001</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
@@ -1682,10 +3066,12 @@
       <c r="E8" s="3">
         <v>0.39228400000000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1.133659</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
@@ -1697,10 +3083,12 @@
       <c r="E9" s="3">
         <v>0.241592</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1.7087159999999999</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
@@ -1712,10 +3100,12 @@
       <c r="E10" s="3">
         <v>0.199936</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.0032179999999999</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -1727,10 +3117,12 @@
       <c r="E11" s="3">
         <v>0.26292599999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>2.081118</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -1742,14 +3134,162 @@
       <c r="E12" s="3">
         <v>0.26620100000000002</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1.975781</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2">
+        <v>2.9894639999999999</v>
+      </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <f>$G$5/D5</f>
+        <v>0.77842840715928407</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17:F17" si="0">$G$5/E5</f>
+        <v>0.99552963680297102</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3677832493833575</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:F24" si="1">$G$5/D6</f>
+        <v>1.4802660995422237</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0382218064746622</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2482007409112033</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5493037617926442</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1751357511563985</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.900584296001909</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0498479393512148</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6206625811911772</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>2.637004601912921</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0929318491496014</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>12.374019007251896</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7495382497735141</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2226692366402339</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>14.952104673495517</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4923308396789565</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8189246938702386</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>11.369982428516009</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4364702049571432</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6011986801988054</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>11.230100563108326</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.513054331426408</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/graphs apresentação.xlsx
+++ b/graphs apresentação.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>OpenMPI</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>Sequêncial</t>
+  </si>
+  <si>
+    <t>20KB</t>
+  </si>
+  <si>
+    <t>200KB</t>
+  </si>
+  <si>
+    <t>15 MB</t>
+  </si>
+  <si>
+    <t>150 MB</t>
   </si>
 </sst>
 </file>
@@ -41,12 +53,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -76,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -85,6 +103,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,11 +577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="315472608"/>
-        <c:axId val="315484576"/>
+        <c:axId val="-27229760"/>
+        <c:axId val="-27221056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315472608"/>
+        <c:axId val="-27229760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315484576"/>
+        <c:crossAx val="-27221056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315484576"/>
+        <c:axId val="-27221056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315472608"/>
+        <c:crossAx val="-27229760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,11 +1233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="315482400"/>
-        <c:axId val="315482944"/>
+        <c:axId val="-27224320"/>
+        <c:axId val="-27233568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315482400"/>
+        <c:axId val="-27224320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315482944"/>
+        <c:crossAx val="-27233568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315482944"/>
+        <c:axId val="-27233568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1456,753 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315482400"/>
+        <c:crossAx val="-27224320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4935064935064934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3310810810810811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4806866952789699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1694915254237288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92991913746630717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8908392759188151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2457627118644066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4198113207547172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7154582763337896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6592356687898087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.956015514759585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.932453565568454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8945513621594614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.319516666043171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.108243063665284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5062030463850036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.465104309634917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0473743132551809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1938839355545126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6548826870328632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.42958376105169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.019246158770807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.421038619231267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.280528623108102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2047972160"/>
+        <c:axId val="-2047986304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2047972160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2047986304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2047986304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Up</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2047972160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,6 +2363,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2272,6 +3082,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2682,6 +3995,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2977,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G24"/>
+  <dimension ref="B4:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -3172,7 +4515,7 @@
         <v>1.3677832493833575</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>2</v>
       </c>
@@ -3189,7 +4532,7 @@
         <v>2.2482007409112033</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>4</v>
       </c>
@@ -3206,7 +4549,7 @@
         <v>2.900584296001909</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>8</v>
       </c>
@@ -3223,7 +4566,7 @@
         <v>2.637004601912921</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -3240,7 +4583,7 @@
         <v>1.7495382497735141</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>20</v>
       </c>
@@ -3257,7 +4600,7 @@
         <v>1.4923308396789565</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <v>28</v>
       </c>
@@ -3274,7 +4617,7 @@
         <v>1.4364702049571432</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <v>32</v>
       </c>
@@ -3289,6 +4632,318 @@
       <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>1.513054331426408</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3.447E-3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.27585100000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.002888</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.31E-4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.823E-3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.14102700000000001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.466702</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.062E-3</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7.0147299999999996E-2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.71601599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2.33E-4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>6.3599999999999996E-4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.39228400000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="D35" s="5">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.6731000000000001E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.241592</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>20</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.7100000000000002E-4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2.4833000000000001E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.199936</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>28</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4">
+        <v>2.9017999999999999E-2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.26292599999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>32</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4">
+        <v>2.9144E-2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.26620100000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <f>C$31/C31</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" ref="D42:F42" si="2">D$31/D31</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" ref="C43:F43" si="3">C$31/C32</f>
+        <v>1.4935064935064934</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="3"/>
+        <v>1.8908392759188151</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="3"/>
+        <v>1.956015514759585</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0473743132551809</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" ref="C44:F44" si="4">C$31/C33</f>
+        <v>2.3310810810810811</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="4"/>
+        <v>3.2457627118644066</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="4"/>
+        <v>3.932453565568454</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1938839355545126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" ref="C45:F45" si="5">C$31/C34</f>
+        <v>1.4806866952789699</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="5"/>
+        <v>5.4198113207547172</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="5"/>
+        <v>6.8945513621594614</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="5"/>
+        <v>7.6548826870328632</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" ref="C46:F46" si="6">C$31/C35</f>
+        <v>1.1694915254237288</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="6"/>
+        <v>4.7154582763337896</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="6"/>
+        <v>10.319516666043171</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="6"/>
+        <v>12.42958376105169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>20</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" ref="C47:F47" si="7">C$31/C36</f>
+        <v>0.92991913746630717</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="7"/>
+        <v>3.6592356687898087</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="7"/>
+        <v>11.108243063665284</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="7"/>
+        <v>15.019246158770807</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>28</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <f t="shared" ref="C48:F48" si="8">E$31/E37</f>
+        <v>9.5062030463850036</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="8"/>
+        <v>11.421038619231267</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>32</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <f t="shared" ref="C49:F49" si="9">E$31/E38</f>
+        <v>9.465104309634917</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="9"/>
+        <v>11.280528623108102</v>
       </c>
     </row>
   </sheetData>
